--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
   <si>
     <t>Row</t>
   </si>
@@ -53,13 +55,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor</t>
+    <t>Unpolarized capacitor, small symbol</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98</t>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C103 C104</t>
   </si>
   <si>
     <t>1uF</t>
@@ -68,85 +70,160 @@
     <t>C_0402_1005Metric</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL05A105KP5NNNC/3886734</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>C_Small</t>
+  </si>
+  <si>
+    <t>C101 C102 C105 C106</t>
+  </si>
+  <si>
+    <t>10uF</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL05A105KP5NNNC/3886734</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
     <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
+    <t>OLED display 128x64</t>
+  </si>
+  <si>
+    <t>OLED-128O064D</t>
+  </si>
+  <si>
+    <t>DS1 DS2</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/37902/oled128o064dbpp3n00000.pdf</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>J1 J2</t>
+    <t>J1</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>4</t>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>OLED STEMMA</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
   <si>
     <t>Resistor</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
+    <t>R2 R4</t>
+  </si>
+  <si>
+    <t>10K</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>R3 R5</t>
+  </si>
+  <si>
+    <t>390K</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>push-pull, active-high, 200mS reset delay, 2.93V threshold voltage, SOT-23</t>
+  </si>
+  <si>
+    <t>TLV810EA29DBZ</t>
+  </si>
+  <si>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>https://www.ti.com/lit/ds/symlink/tlv803e.pdf</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -188,16 +265,28 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>199 (199 SMD/ 0 THT)</t>
+    <t>218 (205 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>215 (204 SMD/ 0 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>R6 R7</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -251,7 +340,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,6 +391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -319,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -354,6 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,6 +473,58 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -700,7 +850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -710,7 +860,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
@@ -723,7 +873,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -735,55 +885,55 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -791,16 +941,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F6" s="3">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -867,100 +1017,292 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="105" customHeight="1">
+    <row r="10" spans="1:10">
       <c r="A10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="105" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
+    <row r="12" spans="1:10">
       <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="D12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="E12" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -975,6 +1317,217 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -986,27 +1539,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>61</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
-        <v>64</v>
+      <c r="A5" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -193,7 +193,7 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>R2 R4</t>
+    <t>R2</t>
   </si>
   <si>
     <t>10K</t>
@@ -217,7 +217,7 @@
     <t>TLV810EA29DBZ</t>
   </si>
   <si>
-    <t>U1 U2</t>
+    <t>U1</t>
   </si>
   <si>
     <t>SOT-23</t>
@@ -265,13 +265,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>218 (205 SMD/ 0 THT)</t>
+    <t>216 (205 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>215 (204 SMD/ 0 THT)</t>
+    <t>213 (204 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -950,7 +950,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1229,7 +1229,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>17</v>
@@ -1293,7 +1293,7 @@
         <v>66</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>17</v>
@@ -1417,7 +1417,7 @@
         <v>85</v>
       </c>
       <c r="F6" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10">

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -8,19 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="DNF" sheetId="2" r:id="rId2"/>
-    <sheet name="Colors" sheetId="3" r:id="rId3"/>
+    <sheet name="Colors" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
   <si>
     <t>Row</t>
   </si>
@@ -55,13 +53,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>Unpolarized capacitor, small symbol</t>
+    <t/>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98 C99 C100 C103 C104</t>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C57 C58 C59 C60 C61 C62 C63 C64 C65 C66 C67 C68 C69 C70 C71 C72 C73 C74 C75 C76 C77 C78 C79 C80 C81 C82 C83 C84 C85 C86 C87 C88 C89 C90 C91 C92 C93 C94 C95 C96 C97 C98</t>
   </si>
   <si>
     <t>1uF</t>
@@ -70,7 +68,7 @@
     <t>C_0402_1005Metric</t>
   </si>
   <si>
-    <t>102</t>
+    <t>98</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -85,145 +83,85 @@
     <t>2</t>
   </si>
   <si>
-    <t>C_Small</t>
-  </si>
-  <si>
-    <t>C101 C102 C105 C106</t>
-  </si>
-  <si>
-    <t>10uF</t>
-  </si>
-  <si>
-    <t/>
+    <t>SK6812</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
+  </si>
+  <si>
+    <t>SK6812_EC15</t>
+  </si>
+  <si>
+    <t>LED_SK6812_EC15_1.5x1.5mm</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SK6812</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67 D68 D69 D70 D71 D72 D73 D74 D75 D76 D77 D78 D79 D80 D81 D82 D83 D84 D85 D86 D87 D88 D89 D90 D91 D92 D93 D94 D95 D96 D97 D98</t>
-  </si>
-  <si>
-    <t>SK6812_EC15</t>
-  </si>
-  <si>
-    <t>LED_SK6812_EC15_1.5x1.5mm</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
-  </si>
-  <si>
-    <t>OLED display 128x64</t>
-  </si>
-  <si>
-    <t>OLED-128O064D</t>
-  </si>
-  <si>
-    <t>DS1 DS2</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/37902/oled128o064dbpp3n00000.pdf</t>
+    <t>Generic connector, single row, 01x04, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x04_Pin</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>OLED</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Generic connector, single row, 01x04, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x04_Pin</t>
-  </si>
-  <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>OLED STEMMA</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>R3 R5</t>
-  </si>
-  <si>
-    <t>390K</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>push-pull, active-high, 200mS reset delay, 2.93V threshold voltage, SOT-23</t>
-  </si>
-  <si>
-    <t>TLV810EA29DBZ</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>SOT-23</t>
-  </si>
-  <si>
-    <t>https://www.ti.com/lit/ds/symlink/tlv803e.pdf</t>
+    <t>U1 U2</t>
+  </si>
+  <si>
+    <t>OLED_128x128</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -250,7 +188,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>2024-10-04</t>
+    <t>2024-10-05</t>
   </si>
   <si>
     <t>KiCad Version:</t>
@@ -265,28 +203,16 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>216 (205 SMD/ 0 THT)</t>
+    <t>202 (200 SMD/ 2 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>213 (204 SMD/ 0 THT)</t>
-  </si>
-  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (DNF)</t>
-  </si>
-  <si>
-    <t>R6 R7</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -361,7 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F9FF"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +299,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE6F9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF0FFF4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF0FFFF"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +323,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFF0FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,58 +399,6 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
-              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -850,7 +724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -860,7 +734,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
@@ -873,7 +747,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -885,55 +759,55 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="F2" s="3">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -941,16 +815,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1013,48 +887,48 @@
       <c r="I9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:10" ht="105" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="105" customHeight="1">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>28</v>
@@ -1063,71 +937,71 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="G11" s="5" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="D12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="F12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="8" t="s">
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
@@ -1138,171 +1012,43 @@
       <c r="H13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>24</v>
+      <c r="I13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
+      <c r="G14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>24</v>
+      <c r="I14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1317,217 +1063,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="51.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="32" customHeight="1">
-      <c r="C1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="C3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="C6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" s="3">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1539,27 +1074,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>92</v>
+      <c r="A4" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
-        <v>93</v>
+      <c r="A5" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>Row</t>
   </si>
@@ -107,7 +109,10 @@
     <t>Conn_01x03_Pin</t>
   </si>
   <si>
-    <t>J1 J2</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>LED-IN</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
@@ -209,10 +214,22 @@
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>201 (199 SMD/ 2 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>LED-OUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -399,6 +416,58 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16584</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>123779</xdr:rowOff>
     </xdr:to>
@@ -747,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -759,55 +828,55 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -815,16 +884,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -937,19 +1006,19 @@
         <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>11</v>
@@ -957,22 +1026,22 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>10</v>
@@ -981,7 +1050,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>11</v>
@@ -989,22 +1058,22 @@
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -1013,30 +1082,30 @@
         <v>17</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1063,6 +1132,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="51.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1074,27 +1322,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
   <si>
     <t>Row</t>
   </si>
@@ -208,7 +208,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>202 (200 SMD/ 2 THT)</t>
+    <t>204 (202 SMD/ 2 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R2 R3</t>
+  </si>
+  <si>
+    <t>3K3</t>
+  </si>
+  <si>
+    <t>R_0805_2012Metric</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -837,7 +849,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1132,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1176,7 +1188,7 @@
         <v>60</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1296,6 +1308,38 @@
         <v>32</v>
       </c>
       <c r="J9" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1322,27 +1366,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -187,13 +187,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.0-RC1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2024-10-05</t>
+    <t>2024-10-16</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -187,7 +187,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1-RC</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>Row</t>
   </si>
@@ -112,7 +112,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>LED-IN</t>
+    <t>JST PH 3</t>
   </si>
   <si>
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
@@ -133,42 +133,54 @@
     <t>J3</t>
   </si>
   <si>
+    <t>JST PH 4</t>
+  </si>
+  <si>
+    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>OLED</t>
   </si>
   <si>
-    <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>U1 U2</t>
   </si>
   <si>
+    <t>OLED I2C</t>
+  </si>
+  <si>
     <t>OLED_128x128</t>
   </si>
   <si>
+    <t>img/GME12812.pdf</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005253671396.html</t>
+  </si>
+  <si>
     <t>KiBot Bill of Materials</t>
   </si>
   <si>
@@ -226,9 +238,6 @@
     <t>J2</t>
   </si>
   <si>
-    <t>LED-OUT</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (DNF)</t>
   </si>
   <si>
@@ -242,6 +251,12 @@
   </si>
   <si>
     <t>R_0805_2012Metric</t>
+  </si>
+  <si>
+    <t>https://www.seielect.com/catalog/sei-rmcf_rmcp.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/stackpole-electronics-inc/RMCF0805FT3K30/1760325</t>
   </si>
   <si>
     <t>Columns colors</t>
@@ -828,7 +843,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -840,13 +855,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -854,41 +869,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -896,13 +911,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1108,16 +1123,16 @@
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>32</v>
+        <v>48</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1125,11 +1140,11 @@
       <c r="H14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>11</v>
+      <c r="I14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1161,13 +1176,13 @@
     <col min="6" max="6" width="51.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="55.7109375" customWidth="1"/>
+    <col min="10" max="10" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1179,13 +1194,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1193,41 +1208,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1235,13 +1250,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1290,10 +1305,10 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>31</v>
@@ -1302,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>32</v>
@@ -1311,36 +1326,36 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>11</v>
+        <v>72</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1366,27 +1381,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -97,10 +97,10 @@
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
+    <t>https://www.inolux-corp.com/datasheet/SMDLED/Addressable%20LED/IN-PI15TAT5R5G5B_v1.0.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/inolux/IN-PI15TAT5R5G5B/14555725</t>
   </si>
   <si>
     <t>3</t>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>Row</t>
   </si>
@@ -118,7 +118,10 @@
     <t>JST_PH_B3B-PH-SM4-TB_1x03-1MP_P2.00mm_Vertical</t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://www.jst-mfg.com/product/pdf/eng/ePH.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc/B3B-PH-SM4-TB/926832</t>
   </si>
   <si>
     <t>4</t>
@@ -137,6 +140,9 @@
   </si>
   <si>
     <t>JST_PH_B4B-PH-SM4-TB_1x04-1MP_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/jst-sales-america-inc./B4B-PH-SM4-TB/926833</t>
   </si>
   <si>
     <t>5</t>
@@ -843,7 +849,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -855,13 +861,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -869,41 +875,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -911,13 +917,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1019,7 +1025,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>27</v>
       </c>
@@ -1044,31 +1050,31 @@
       <c r="H11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="J11" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>10</v>
@@ -1076,31 +1082,31 @@
       <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="10" t="s">
+      <c r="I12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>11</v>
+      <c r="J12" s="12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>10</v>
@@ -1109,30 +1115,30 @@
         <v>17</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>20</v>
@@ -1141,10 +1147,10 @@
         <v>17</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1188,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1194,13 +1200,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="3">
         <v>8</v>
@@ -1208,41 +1214,41 @@
     </row>
     <row r="3" spans="1:10">
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1250,13 +1256,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F6" s="3">
         <v>201</v>
@@ -1294,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -1305,7 +1311,7 @@
         <v>28</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1317,13 +1323,13 @@
         <v>10</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>11</v>
+      <c r="J9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
@@ -1331,31 +1337,31 @@
         <v>20</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1381,27 +1387,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-display-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-display-bom.xlsx
@@ -217,7 +217,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>8.0.4+1</t>
+    <t>8.0.6+1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -447,10 +447,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1464384</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3186525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>297815</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -477,7 +477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,10 +499,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>16584</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123779</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3024600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107315</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -529,7 +529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2378784" cy="1285829"/>
+          <a:ext cx="9396825" cy="5079365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
